--- a/examples/ExampleCN.xlsx
+++ b/examples/ExampleCN.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_100FE4A0CACF91B43D8C66CA5BA31DA62939E76F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7519E49C-F186-49BA-BF9B-306124BC063E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{482CFF31-6811-494D-9CEC-C0315C1E2B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>对象类型</t>
   </si>
@@ -148,6 +148,12 @@
     <t>o</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
     <t>int32</t>
   </si>
   <si>
@@ -178,6 +184,12 @@
     <t>EnumCN[]</t>
   </si>
   <si>
+    <t>map&lt;int32, string&gt;</t>
+  </si>
+  <si>
+    <t>map&lt;int32, ObjectCN&gt;</t>
+  </si>
+  <si>
     <t>unique_index=1</t>
   </si>
   <si>
@@ -235,6 +247,12 @@
     <t>示例EnumCN[]</t>
   </si>
   <si>
+    <t>示例map&lt;int32, string&gt;</t>
+  </si>
+  <si>
+    <t>示例map&lt;int32, ObjectCN&gt;</t>
+  </si>
+  <si>
     <t>HelloWrold</t>
   </si>
   <si>
@@ -256,6 +274,12 @@
     <t>1,2</t>
   </si>
   <si>
+    <t>0: HelloWorld, 1: HAHAHAHAHA</t>
+  </si>
+  <si>
+    <t>0: {A: 1, B: HelloWorld}, 1: {A: 3, B: HAHAHAHAHA}</t>
+  </si>
+  <si>
     <t>HAHAHAHAHAHA</t>
   </si>
   <si>
@@ -275,6 +299,9 @@
   </si>
   <si>
     <t>A,B</t>
+  </si>
+  <si>
+    <t>0: {字段A: 1, 字段B: HelloWorld}, 1: {字段A: 3, 字段B: HAHAHAHAHA}</t>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10</t>
@@ -385,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,20 +422,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,10 +470,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,28 +741,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -842,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,10 +883,12 @@
     <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="104.625" customWidth="1"/>
     <col min="16" max="16" width="20.5" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="34.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="72.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -918,37 +937,43 @@
       <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="Q1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -957,89 +982,101 @@
         <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1064,32 +1101,38 @@
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>68</v>
+      <c r="I5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1115,31 +1158,37 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="R6" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1165,31 +1214,37 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1215,28 +1270,34 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/examples/ExampleCN.xlsx
+++ b/examples/ExampleCN.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{482CFF31-6811-494D-9CEC-C0315C1E2B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{3066CDBC-FEFC-46A1-9773-20BD758E3C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,19 +336,6 @@
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -412,7 +399,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,15 +410,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,28 +722,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -851,7 +832,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -862,7 +843,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,8 +862,8 @@
     <col min="12" max="12" width="14.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="34.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="30.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="104.625" customWidth="1"/>
-    <col min="16" max="16" width="20.5" customWidth="1"/>
+    <col min="15" max="15" width="104.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.5" style="2" customWidth="1"/>
     <col min="17" max="17" width="34.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="72.625" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
@@ -937,10 +918,10 @@
       <c r="P1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -993,10 +974,10 @@
       <c r="P2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1069,10 +1050,10 @@
       <c r="P4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1122,13 +1103,13 @@
       <c r="O5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1178,13 +1159,13 @@
       <c r="O6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1234,13 +1215,13 @@
       <c r="O7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1290,18 +1271,18 @@
       <c r="O8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="2" t="s">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
